--- a/results/mp/logistic/toy-spam/confidence/168/stop-words-topk-0.1/avg_0.003_scores.xlsx
+++ b/results/mp/logistic/toy-spam/confidence/168/stop-words-topk-0.1/avg_0.003_scores.xlsx
@@ -43,61 +43,64 @@
     <t>returned</t>
   </si>
   <si>
+    <t>poor</t>
+  </si>
+  <si>
     <t>waste</t>
   </si>
   <si>
-    <t>poor</t>
-  </si>
-  <si>
     <t>pool</t>
   </si>
   <si>
     <t>broke</t>
   </si>
   <si>
+    <t>disappointed</t>
+  </si>
+  <si>
+    <t>poorly</t>
+  </si>
+  <si>
     <t>disappointing</t>
   </si>
   <si>
-    <t>poorly</t>
-  </si>
-  <si>
-    <t>disappointed</t>
+    <t>apart</t>
   </si>
   <si>
     <t>return</t>
   </si>
   <si>
-    <t>apart</t>
-  </si>
-  <si>
     <t>paid</t>
   </si>
   <si>
+    <t>ok</t>
+  </si>
+  <si>
+    <t>however</t>
+  </si>
+  <si>
     <t>okay</t>
   </si>
   <si>
-    <t>ok</t>
-  </si>
-  <si>
-    <t>however</t>
-  </si>
-  <si>
     <t>pay</t>
   </si>
   <si>
     <t>guess</t>
   </si>
   <si>
+    <t>missing</t>
+  </si>
+  <si>
+    <t>water</t>
+  </si>
+  <si>
+    <t>tried</t>
+  </si>
+  <si>
     <t>interest</t>
   </si>
   <si>
-    <t>tried</t>
-  </si>
-  <si>
-    <t>water</t>
-  </si>
-  <si>
-    <t>missing</t>
+    <t>paint</t>
   </si>
   <si>
     <t>maybe</t>
@@ -106,97 +109,94 @@
     <t>junk</t>
   </si>
   <si>
+    <t>half</t>
+  </si>
+  <si>
     <t>cheap</t>
   </si>
   <si>
-    <t>paint</t>
+    <t>fl</t>
+  </si>
+  <si>
+    <t>light</t>
   </si>
   <si>
     <t>sound</t>
   </si>
   <si>
+    <t>worked</t>
+  </si>
+  <si>
+    <t>piece</t>
+  </si>
+  <si>
+    <t>thought</t>
+  </si>
+  <si>
     <t>picture</t>
   </si>
   <si>
-    <t>half</t>
-  </si>
-  <si>
-    <t>fl</t>
-  </si>
-  <si>
-    <t>worked</t>
-  </si>
-  <si>
-    <t>thought</t>
-  </si>
-  <si>
-    <t>piece</t>
-  </si>
-  <si>
     <t>small</t>
   </si>
   <si>
+    <t>broken</t>
+  </si>
+  <si>
     <t>work</t>
   </si>
   <si>
-    <t>broken</t>
+    <t>nothing</t>
+  </si>
+  <si>
+    <t>smaller</t>
   </si>
   <si>
     <t>hard</t>
   </si>
   <si>
+    <t>way</t>
+  </si>
+  <si>
     <t>money</t>
   </si>
   <si>
-    <t>way</t>
-  </si>
-  <si>
     <t>item</t>
   </si>
   <si>
     <t>product</t>
   </si>
   <si>
+    <t>would</t>
+  </si>
+  <si>
     <t>made</t>
   </si>
   <si>
-    <t>would</t>
-  </si>
-  <si>
-    <t>toy</t>
-  </si>
-  <si>
     <t>negative</t>
   </si>
   <si>
     <t>awesome</t>
   </si>
   <si>
-    <t>classic</t>
-  </si>
-  <si>
     <t>excellent</t>
   </si>
   <si>
+    <t>favorite</t>
+  </si>
+  <si>
     <t>highly</t>
   </si>
   <si>
-    <t>favorite</t>
-  </si>
-  <si>
     <t>loves</t>
   </si>
   <si>
+    <t>loved</t>
+  </si>
+  <si>
     <t>love</t>
   </si>
   <si>
-    <t>loved</t>
-  </si>
-  <si>
     <t>great</t>
-  </si>
-  <si>
-    <t>perfect</t>
   </si>
   <si>
     <t>family</t>
@@ -566,7 +566,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q44"/>
+  <dimension ref="A1:Q46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -574,7 +574,7 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J1" t="s">
         <v>64</v>
@@ -635,13 +635,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>0.9736842105263158</v>
       </c>
       <c r="C3">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D3">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -653,19 +653,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K3">
-        <v>0.6307692307692307</v>
+        <v>0.5692307692307692</v>
       </c>
       <c r="L3">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="M3">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -677,7 +677,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -685,13 +685,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.9662162162162162</v>
+        <v>0.9577464788732394</v>
       </c>
       <c r="C4">
-        <v>143</v>
+        <v>68</v>
       </c>
       <c r="D4">
-        <v>143</v>
+        <v>68</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -703,19 +703,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K4">
-        <v>0.4716981132075472</v>
+        <v>0.40625</v>
       </c>
       <c r="L4">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M4">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>28</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -735,13 +735,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.9436619718309859</v>
+        <v>0.9459459459459459</v>
       </c>
       <c r="C5">
-        <v>67</v>
+        <v>140</v>
       </c>
       <c r="D5">
-        <v>67</v>
+        <v>140</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -753,19 +753,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K5">
-        <v>0.4375</v>
+        <v>0.3978494623655914</v>
       </c>
       <c r="L5">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="M5">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -777,7 +777,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>36</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -806,16 +806,16 @@
         <v>2</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K6">
-        <v>0.4285714285714285</v>
+        <v>0.3896103896103896</v>
       </c>
       <c r="L6">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="M6">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -827,7 +827,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -835,13 +835,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.9368932038834952</v>
+        <v>0.9320388349514563</v>
       </c>
       <c r="C7">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D7">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -853,19 +853,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K7">
-        <v>0.3763440860215054</v>
+        <v>0.2759336099585062</v>
       </c>
       <c r="L7">
-        <v>35</v>
+        <v>133</v>
       </c>
       <c r="M7">
-        <v>35</v>
+        <v>133</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -877,7 +877,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>58</v>
+        <v>349</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -885,13 +885,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.9318181818181818</v>
+        <v>0.9301075268817204</v>
       </c>
       <c r="C8">
-        <v>41</v>
+        <v>173</v>
       </c>
       <c r="D8">
-        <v>41</v>
+        <v>173</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -903,19 +903,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K8">
-        <v>0.2759336099585062</v>
+        <v>0.2446483180428135</v>
       </c>
       <c r="L8">
-        <v>133</v>
+        <v>80</v>
       </c>
       <c r="M8">
-        <v>133</v>
+        <v>80</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -927,7 +927,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>349</v>
+        <v>247</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -935,13 +935,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.9130434782608695</v>
+        <v>0.8913043478260869</v>
       </c>
       <c r="C9">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D9">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -953,19 +953,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="K9">
-        <v>0.242467718794835</v>
+        <v>0.2381635581061693</v>
       </c>
       <c r="L9">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="M9">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>528</v>
+        <v>531</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -985,13 +985,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.9032258064516129</v>
+        <v>0.8636363636363636</v>
       </c>
       <c r="C10">
-        <v>168</v>
+        <v>38</v>
       </c>
       <c r="D10">
-        <v>168</v>
+        <v>38</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1003,31 +1003,31 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="K10">
-        <v>0.2262996941896024</v>
+        <v>0.1591468416735029</v>
       </c>
       <c r="L10">
-        <v>74</v>
+        <v>194</v>
       </c>
       <c r="M10">
-        <v>74</v>
+        <v>195</v>
       </c>
       <c r="N10">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q10">
-        <v>253</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1035,13 +1035,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.8870967741935484</v>
+        <v>0.8631578947368421</v>
       </c>
       <c r="C11">
-        <v>55</v>
+        <v>82</v>
       </c>
       <c r="D11">
-        <v>55</v>
+        <v>82</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1053,31 +1053,31 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="K11">
-        <v>0.1566858080393765</v>
+        <v>0.0947075208913649</v>
       </c>
       <c r="L11">
-        <v>191</v>
+        <v>34</v>
       </c>
       <c r="M11">
-        <v>192</v>
+        <v>34</v>
       </c>
       <c r="N11">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O11">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q11">
-        <v>1028</v>
+        <v>325</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1085,13 +1085,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.8421052631578947</v>
+        <v>0.8387096774193549</v>
       </c>
       <c r="C12">
-        <v>80</v>
+        <v>52</v>
       </c>
       <c r="D12">
-        <v>80</v>
+        <v>52</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1103,19 +1103,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="K12">
-        <v>0.1385542168674699</v>
+        <v>0.07852044127190136</v>
       </c>
       <c r="L12">
-        <v>23</v>
+        <v>121</v>
       </c>
       <c r="M12">
-        <v>23</v>
+        <v>121</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1127,7 +1127,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>143</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1135,13 +1135,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.7631578947368421</v>
+        <v>0.7894736842105263</v>
       </c>
       <c r="C13">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D13">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1153,19 +1153,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="K13">
-        <v>0.09749303621169916</v>
+        <v>0.05959684487291849</v>
       </c>
       <c r="L13">
-        <v>35</v>
+        <v>68</v>
       </c>
       <c r="M13">
-        <v>35</v>
+        <v>68</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1177,7 +1177,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>324</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1185,13 +1185,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.7592592592592593</v>
+        <v>0.75</v>
       </c>
       <c r="C14">
-        <v>41</v>
+        <v>96</v>
       </c>
       <c r="D14">
-        <v>41</v>
+        <v>96</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1203,31 +1203,7 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>13</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="K14">
-        <v>0.07662337662337662</v>
-      </c>
-      <c r="L14">
-        <v>118</v>
-      </c>
-      <c r="M14">
-        <v>119</v>
-      </c>
-      <c r="N14">
-        <v>0.99</v>
-      </c>
-      <c r="O14">
-        <v>0.01000000000000001</v>
-      </c>
-      <c r="P14" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q14">
-        <v>1422</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1238,10 +1214,10 @@
         <v>0.734375</v>
       </c>
       <c r="C15">
-        <v>94</v>
+        <v>47</v>
       </c>
       <c r="D15">
-        <v>94</v>
+        <v>47</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1253,31 +1229,7 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>34</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="K15">
-        <v>0.06134969325153374</v>
-      </c>
-      <c r="L15">
-        <v>70</v>
-      </c>
-      <c r="M15">
-        <v>70</v>
-      </c>
-      <c r="N15">
-        <v>1</v>
-      </c>
-      <c r="O15">
-        <v>0</v>
-      </c>
-      <c r="P15" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q15">
-        <v>1071</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1285,13 +1237,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.71875</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="C16">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="D16">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1311,13 +1263,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.6825396825396826</v>
+        <v>0.6507936507936508</v>
       </c>
       <c r="C17">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D17">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1329,7 +1281,7 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1363,13 +1315,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.625</v>
+        <v>0.6222222222222222</v>
       </c>
       <c r="C19">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D19">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1381,7 +1333,7 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1389,13 +1341,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.6229508196721312</v>
+        <v>0.6190476190476191</v>
       </c>
       <c r="C20">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="D20">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1407,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1415,13 +1367,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.6190476190476191</v>
+        <v>0.6065573770491803</v>
       </c>
       <c r="C21">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="D21">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1433,7 +1385,7 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1441,13 +1393,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.5555555555555556</v>
+        <v>0.6</v>
       </c>
       <c r="C22">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D22">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1459,7 +1411,7 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1467,13 +1419,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.5357142857142857</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="C23">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="D23">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1485,7 +1437,7 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1493,13 +1445,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.4909090909090909</v>
+        <v>0.5357142857142857</v>
       </c>
       <c r="C24">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D24">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1511,7 +1463,7 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1519,13 +1471,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.4834123222748815</v>
+        <v>0.5272727272727272</v>
       </c>
       <c r="C25">
-        <v>102</v>
+        <v>29</v>
       </c>
       <c r="D25">
-        <v>102</v>
+        <v>29</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1537,7 +1489,7 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>109</v>
+        <v>26</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1545,13 +1497,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.4761904761904762</v>
+        <v>0.5</v>
       </c>
       <c r="C26">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D26">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1563,7 +1515,7 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1571,13 +1523,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.4492753623188406</v>
+        <v>0.4360189573459716</v>
       </c>
       <c r="C27">
-        <v>31</v>
+        <v>92</v>
       </c>
       <c r="D27">
-        <v>31</v>
+        <v>92</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1589,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>38</v>
+        <v>119</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1597,13 +1549,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.4123711340206185</v>
+        <v>0.4310344827586207</v>
       </c>
       <c r="C28">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="D28">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -1615,7 +1567,7 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>57</v>
+        <v>33</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1623,13 +1575,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.4074074074074074</v>
+        <v>0.4107142857142857</v>
       </c>
       <c r="C29">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D29">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -1641,7 +1593,7 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1649,13 +1601,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.396551724137931</v>
+        <v>0.3768115942028986</v>
       </c>
       <c r="C30">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D30">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -1667,7 +1619,7 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>35</v>
+        <v>43</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1675,13 +1627,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.3796296296296297</v>
+        <v>0.3703703703703703</v>
       </c>
       <c r="C31">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D31">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -1693,7 +1645,7 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1701,13 +1653,13 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.3663366336633663</v>
+        <v>0.3658536585365854</v>
       </c>
       <c r="C32">
-        <v>74</v>
+        <v>30</v>
       </c>
       <c r="D32">
-        <v>74</v>
+        <v>30</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -1719,7 +1671,7 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>128</v>
+        <v>52</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1727,13 +1679,13 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.3536585365853658</v>
+        <v>0.3613861386138614</v>
       </c>
       <c r="C33">
-        <v>29</v>
+        <v>73</v>
       </c>
       <c r="D33">
-        <v>29</v>
+        <v>73</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -1745,7 +1697,7 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>53</v>
+        <v>129</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1753,13 +1705,13 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.3536231884057971</v>
+        <v>0.3608247422680412</v>
       </c>
       <c r="C34">
-        <v>122</v>
+        <v>35</v>
       </c>
       <c r="D34">
-        <v>122</v>
+        <v>35</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -1771,7 +1723,7 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>223</v>
+        <v>62</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1779,13 +1731,13 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.2974683544303797</v>
+        <v>0.3478260869565217</v>
       </c>
       <c r="C35">
-        <v>94</v>
+        <v>120</v>
       </c>
       <c r="D35">
-        <v>94</v>
+        <v>120</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -1797,7 +1749,7 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>222</v>
+        <v>225</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1805,13 +1757,13 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.2891566265060241</v>
+        <v>0.3012048192771085</v>
       </c>
       <c r="C36">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D36">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -1823,7 +1775,7 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1831,13 +1783,13 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.17</v>
+        <v>0.2848101265822785</v>
       </c>
       <c r="C37">
-        <v>34</v>
+        <v>90</v>
       </c>
       <c r="D37">
-        <v>34</v>
+        <v>90</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -1849,7 +1801,7 @@
         <v>0</v>
       </c>
       <c r="H37">
-        <v>166</v>
+        <v>226</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1857,13 +1809,13 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.1550632911392405</v>
+        <v>0.2417582417582418</v>
       </c>
       <c r="C38">
-        <v>49</v>
+        <v>22</v>
       </c>
       <c r="D38">
-        <v>49</v>
+        <v>22</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -1875,7 +1827,7 @@
         <v>0</v>
       </c>
       <c r="H38">
-        <v>267</v>
+        <v>69</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1883,25 +1835,25 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.1411764705882353</v>
+        <v>0.2016806722689076</v>
       </c>
       <c r="C39">
         <v>24</v>
       </c>
       <c r="D39">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E39">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="F39">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="G39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H39">
-        <v>146</v>
+        <v>95</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1909,13 +1861,13 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.1376811594202899</v>
+        <v>0.185</v>
       </c>
       <c r="C40">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D40">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -1927,7 +1879,7 @@
         <v>0</v>
       </c>
       <c r="H40">
-        <v>238</v>
+        <v>163</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1935,13 +1887,13 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.09691629955947137</v>
+        <v>0.1578947368421053</v>
       </c>
       <c r="C41">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="D41">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -1953,7 +1905,7 @@
         <v>0</v>
       </c>
       <c r="H41">
-        <v>410</v>
+        <v>144</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1961,13 +1913,13 @@
         <v>47</v>
       </c>
       <c r="B42">
-        <v>0.08517350157728706</v>
+        <v>0.1550632911392405</v>
       </c>
       <c r="C42">
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="D42">
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -1979,7 +1931,7 @@
         <v>0</v>
       </c>
       <c r="H42">
-        <v>290</v>
+        <v>267</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1987,25 +1939,25 @@
         <v>48</v>
       </c>
       <c r="B43">
-        <v>0.07726597325408618</v>
+        <v>0.1340579710144928</v>
       </c>
       <c r="C43">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="D43">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="E43">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="F43">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="G43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H43">
-        <v>621</v>
+        <v>239</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2013,13 +1965,13 @@
         <v>49</v>
       </c>
       <c r="B44">
-        <v>0.0366412213740458</v>
+        <v>0.105726872246696</v>
       </c>
       <c r="C44">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="D44">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -2031,7 +1983,59 @@
         <v>0</v>
       </c>
       <c r="H44">
-        <v>631</v>
+        <v>406</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B45">
+        <v>0.09940652818991098</v>
+      </c>
+      <c r="C45">
+        <v>67</v>
+      </c>
+      <c r="D45">
+        <v>67</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>1</v>
+      </c>
+      <c r="G45" t="b">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="A46" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B46">
+        <v>0.07255520504731862</v>
+      </c>
+      <c r="C46">
+        <v>23</v>
+      </c>
+      <c r="D46">
+        <v>23</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+      <c r="F46">
+        <v>1</v>
+      </c>
+      <c r="G46" t="b">
+        <v>0</v>
+      </c>
+      <c r="H46">
+        <v>294</v>
       </c>
     </row>
   </sheetData>
